--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -24,64 +24,64 @@
     <t>Launch Date</t>
   </si>
   <si>
+    <t>Honda Activa 7G</t>
+  </si>
+  <si>
+    <t>Rs. 79,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> : Apr 2024</t>
+  </si>
+  <si>
+    <t>Honda PCX160</t>
+  </si>
+  <si>
+    <t>Rs. 1.20 Lakh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> : Jun 2024</t>
+  </si>
+  <si>
+    <t>Honda Activa Electric</t>
+  </si>
+  <si>
+    <t>Rs. 1.10 Lakh</t>
+  </si>
+  <si>
+    <t>Honda CB350 Cruiser</t>
+  </si>
+  <si>
+    <t>Rs. 2.30 Lakh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> : Nov 2024</t>
+  </si>
+  <si>
+    <t>Honda Forza 350</t>
+  </si>
+  <si>
+    <t>Rs. 3.70 Lakh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> : Unrevealed</t>
+  </si>
+  <si>
+    <t>Honda CBR150R</t>
+  </si>
+  <si>
+    <t>Rs. 1.70 Lakh</t>
+  </si>
+  <si>
+    <t>Honda Rebel 300</t>
+  </si>
+  <si>
     <t>Honda CRF300L</t>
   </si>
   <si>
     <t>Rs. 3.30 Lakh</t>
   </si>
   <si>
-    <t>30 Mar 2024</t>
-  </si>
-  <si>
-    <t>Honda Activa Electric</t>
-  </si>
-  <si>
-    <t>Rs. 1.10 Lakh</t>
-  </si>
-  <si>
-    <t>Mar 2024</t>
-  </si>
-  <si>
-    <t>Honda Forza 350</t>
-  </si>
-  <si>
-    <t>Rs. 3.70 Lakh</t>
-  </si>
-  <si>
-    <t>Honda CB350 Cruiser</t>
-  </si>
-  <si>
-    <t>Rs. 2.30 Lakh</t>
-  </si>
-  <si>
-    <t>Honda Activa 7G</t>
-  </si>
-  <si>
-    <t>Rs. 79,000</t>
-  </si>
-  <si>
-    <t>Apr 2024</t>
-  </si>
-  <si>
-    <t>Honda PCX160</t>
-  </si>
-  <si>
-    <t>Rs. 1.20 Lakh</t>
-  </si>
-  <si>
-    <t>Jun 2024</t>
-  </si>
-  <si>
-    <t>Honda CBR150R</t>
-  </si>
-  <si>
-    <t>Rs. 1.70 Lakh</t>
-  </si>
-  <si>
-    <t>Unrevealed</t>
-  </si>
-  <si>
-    <t>Honda Rebel 300</t>
+    <t xml:space="preserve"> Date : 31 Dec 2050</t>
   </si>
   <si>
     <t>Popular Car Model</t>
@@ -198,7 +198,7 @@
   <cols>
     <col min="1" max="1" width="17.90625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.37109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.51953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -253,29 +253,29 @@
         <v>12</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -283,21 +283,21 @@
         <v>19</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>22</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
